--- a/artfynd/A 27975-2021.xlsx
+++ b/artfynd/A 27975-2021.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7000805</v>
+        <v>7002191</v>
       </c>
       <c r="B3" t="n">
-        <v>89545</v>
+        <v>90841</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +808,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1503</v>
+        <v>2079</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Abborrsön, Hjd</t>
+          <t>Torsborg, Hjd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>418418.9827775868</v>
+        <v>418312.5155289819</v>
       </c>
       <c r="R3" t="n">
-        <v>6965552.110442234</v>
+        <v>6965894.658165519</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2013-09-25</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2013-09-25</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7002191</v>
+        <v>7002189</v>
       </c>
       <c r="B4" t="n">
-        <v>90841</v>
+        <v>77177</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2079</v>
+        <v>353</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>418312.5155289819</v>
+        <v>418326.8809325804</v>
       </c>
       <c r="R4" t="n">
-        <v>6965894.658165519</v>
+        <v>6965882.864499347</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7002189</v>
+        <v>7002379</v>
       </c>
       <c r="B5" t="n">
-        <v>77177</v>
+        <v>90653</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>353</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>418326.8809325804</v>
+        <v>418166.504226973</v>
       </c>
       <c r="R5" t="n">
-        <v>6965882.864499347</v>
+        <v>6966064.801772198</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7002379</v>
+        <v>7000749</v>
       </c>
       <c r="B6" t="n">
-        <v>90653</v>
+        <v>89633</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1156,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>65</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>418166.504226973</v>
+        <v>418000.6127412826</v>
       </c>
       <c r="R6" t="n">
-        <v>6966064.801772198</v>
+        <v>6965896.94621201</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2013-09-25</t>
+          <t>2013-08-05</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2013-09-25</t>
+          <t>2013-08-05</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7000749</v>
+        <v>7002187</v>
       </c>
       <c r="B7" t="n">
-        <v>89633</v>
+        <v>77177</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,25 +1272,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>65</v>
+        <v>353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>418000.6127412826</v>
+        <v>418395.4397498402</v>
       </c>
       <c r="R7" t="n">
-        <v>6965896.94621201</v>
+        <v>6965802.934802333</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2013-08-05</t>
+          <t>2013-09-25</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2013-08-05</t>
+          <t>2013-09-25</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7002187</v>
+        <v>7002193</v>
       </c>
       <c r="B8" t="n">
-        <v>77177</v>
+        <v>89633</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1388,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>65</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>418395.4397498402</v>
+        <v>418178.932913432</v>
       </c>
       <c r="R8" t="n">
-        <v>6965802.934802333</v>
+        <v>6965956.995579326</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7002193</v>
+        <v>66500968</v>
       </c>
       <c r="B9" t="n">
-        <v>89633</v>
+        <v>77177</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,41 +1504,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Torsborg, Hjd</t>
+          <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>418178.932913432</v>
+        <v>418070.7725573474</v>
       </c>
       <c r="R9" t="n">
-        <v>6965956.995579326</v>
+        <v>6965881.470697334</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2013-09-25</t>
+          <t>2011-08-19</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2013-09-25</t>
+          <t>2011-08-19</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1588,30 +1588,31 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>13816</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Via Malin Sahlin</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66500968</v>
+        <v>66500951</v>
       </c>
       <c r="B10" t="n">
-        <v>77177</v>
+        <v>90647</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,21 +1625,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>353</v>
+        <v>4362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1649,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>418070.7725573474</v>
+        <v>418180.8922769416</v>
       </c>
       <c r="R10" t="n">
-        <v>6965881.470697334</v>
+        <v>6965723.1873229</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
@@ -1707,7 +1708,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>13816</t>
+          <t>13801</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1725,10 +1726,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66500951</v>
+        <v>66500963</v>
       </c>
       <c r="B11" t="n">
-        <v>90647</v>
+        <v>77177</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1741,21 +1742,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>353</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1765,10 +1766,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>418180.8922769416</v>
+        <v>418084.7364231201</v>
       </c>
       <c r="R11" t="n">
-        <v>6965723.1873229</v>
+        <v>6965871.973159548</v>
       </c>
       <c r="S11" t="n">
         <v>50</v>
@@ -1824,7 +1825,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>13801</t>
+          <t>13811</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1842,10 +1843,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>66500963</v>
+        <v>66500957</v>
       </c>
       <c r="B12" t="n">
-        <v>77177</v>
+        <v>90841</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,21 +1859,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>2079</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1882,10 +1883,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>418084.7364231201</v>
+        <v>418153.4684979633</v>
       </c>
       <c r="R12" t="n">
-        <v>6965871.973159548</v>
+        <v>6965835.949539423</v>
       </c>
       <c r="S12" t="n">
         <v>50</v>
@@ -1941,7 +1942,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>13811</t>
+          <t>13806</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1959,10 +1960,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66500957</v>
+        <v>66500966</v>
       </c>
       <c r="B13" t="n">
-        <v>90841</v>
+        <v>90697</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1975,21 +1976,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2079</v>
+        <v>5449</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1999,10 +2000,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>418153.4684979633</v>
+        <v>418070.7725573474</v>
       </c>
       <c r="R13" t="n">
-        <v>6965835.949539423</v>
+        <v>6965881.470697334</v>
       </c>
       <c r="S13" t="n">
         <v>50</v>
@@ -2047,6 +2048,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2058,7 +2064,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>13806</t>
+          <t>13814</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2076,10 +2082,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>66500966</v>
+        <v>66500977</v>
       </c>
       <c r="B14" t="n">
-        <v>90697</v>
+        <v>89545</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2088,25 +2094,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5449</v>
+        <v>1503</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2116,10 +2122,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>418070.7725573474</v>
+        <v>418025.9758622434</v>
       </c>
       <c r="R14" t="n">
-        <v>6965881.470697334</v>
+        <v>6965885.333890018</v>
       </c>
       <c r="S14" t="n">
         <v>50</v>
@@ -2164,11 +2170,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>rikligt</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2180,7 +2181,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>13814</t>
+          <t>13825</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2198,10 +2199,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66500977</v>
+        <v>66500971</v>
       </c>
       <c r="B15" t="n">
-        <v>89545</v>
+        <v>90647</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2210,25 +2211,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1503</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2238,10 +2239,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>418025.9758622434</v>
+        <v>418037.6493781783</v>
       </c>
       <c r="R15" t="n">
-        <v>6965885.333890018</v>
+        <v>6965894.191345388</v>
       </c>
       <c r="S15" t="n">
         <v>50</v>
@@ -2297,7 +2298,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>13825</t>
+          <t>13819</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2315,10 +2316,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66500971</v>
+        <v>66500964</v>
       </c>
       <c r="B16" t="n">
-        <v>90647</v>
+        <v>76909</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2331,21 +2332,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>6437</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2355,10 +2356,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>418037.6493781783</v>
+        <v>418084.7364231201</v>
       </c>
       <c r="R16" t="n">
-        <v>6965894.191345388</v>
+        <v>6965871.973159548</v>
       </c>
       <c r="S16" t="n">
         <v>50</v>
@@ -2414,7 +2415,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>13819</t>
+          <t>13812</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2432,10 +2433,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>66500964</v>
+        <v>66500959</v>
       </c>
       <c r="B17" t="n">
-        <v>76909</v>
+        <v>90697</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2448,21 +2449,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6437</v>
+        <v>5449</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2472,10 +2473,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>418084.7364231201</v>
+        <v>418125.9637548741</v>
       </c>
       <c r="R17" t="n">
-        <v>6965871.973159548</v>
+        <v>6965853.561324411</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2531,7 +2532,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>13812</t>
+          <t>13808</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2549,10 +2550,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>66500959</v>
+        <v>66500954</v>
       </c>
       <c r="B18" t="n">
-        <v>90697</v>
+        <v>90647</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2565,21 +2566,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2589,10 +2590,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>418125.9637548741</v>
+        <v>418161.5837728766</v>
       </c>
       <c r="R18" t="n">
-        <v>6965853.561324411</v>
+        <v>6965830.715173931</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2648,7 +2649,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>13808</t>
+          <t>13803</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2666,10 +2667,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>66500954</v>
+        <v>66500956</v>
       </c>
       <c r="B19" t="n">
-        <v>90647</v>
+        <v>90657</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2678,25 +2679,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>4365</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2706,10 +2707,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>418161.5837728766</v>
+        <v>418153.4684979633</v>
       </c>
       <c r="R19" t="n">
-        <v>6965830.715173931</v>
+        <v>6965835.949539423</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2765,7 +2766,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>13803</t>
+          <t>13805</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2783,10 +2784,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>66500956</v>
+        <v>66500970</v>
       </c>
       <c r="B20" t="n">
-        <v>90657</v>
+        <v>90669</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2795,25 +2796,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4365</v>
+        <v>2059</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2823,10 +2824,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>418153.4684979633</v>
+        <v>418037.6493781783</v>
       </c>
       <c r="R20" t="n">
-        <v>6965835.949539423</v>
+        <v>6965894.191345388</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2882,7 +2883,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>13805</t>
+          <t>13818</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2900,10 +2901,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>66500970</v>
+        <v>66500962</v>
       </c>
       <c r="B21" t="n">
-        <v>90669</v>
+        <v>77177</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2916,21 +2917,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2059</v>
+        <v>353</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2940,10 +2941,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>418037.6493781783</v>
+        <v>418109.9745508432</v>
       </c>
       <c r="R21" t="n">
-        <v>6965894.191345388</v>
+        <v>6965855.332562842</v>
       </c>
       <c r="S21" t="n">
         <v>50</v>
@@ -2999,7 +3000,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>13818</t>
+          <t>13810</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3017,10 +3018,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>66500962</v>
+        <v>66500961</v>
       </c>
       <c r="B22" t="n">
-        <v>77177</v>
+        <v>90639</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3033,21 +3034,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>353</v>
+        <v>3100</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3116,7 +3117,7 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>13810</t>
+          <t>13809</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3134,10 +3135,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>66500961</v>
+        <v>66500952</v>
       </c>
       <c r="B23" t="n">
-        <v>90639</v>
+        <v>77177</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3150,34 +3151,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3100</v>
+        <v>353</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>418109.9745508432</v>
+        <v>418161.5837728766</v>
       </c>
       <c r="R23" t="n">
-        <v>6965855.332562842</v>
+        <v>6965830.715173931</v>
       </c>
       <c r="S23" t="n">
         <v>50</v>
@@ -3233,7 +3238,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>13809</t>
+          <t>13802</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3251,10 +3256,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>66500952</v>
+        <v>66500976</v>
       </c>
       <c r="B24" t="n">
-        <v>77177</v>
+        <v>90645</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3267,38 +3272,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>353</v>
+        <v>4361</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>418161.5837728766</v>
+        <v>418025.9758622434</v>
       </c>
       <c r="R24" t="n">
-        <v>6965830.715173931</v>
+        <v>6965885.333890018</v>
       </c>
       <c r="S24" t="n">
         <v>50</v>
@@ -3354,7 +3355,7 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>13802</t>
+          <t>13824</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3372,7 +3373,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>66500976</v>
+        <v>66500950</v>
       </c>
       <c r="B25" t="n">
         <v>90645</v>
@@ -3412,10 +3413,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>418025.9758622434</v>
+        <v>418180.8922769416</v>
       </c>
       <c r="R25" t="n">
-        <v>6965885.333890018</v>
+        <v>6965723.1873229</v>
       </c>
       <c r="S25" t="n">
         <v>50</v>
@@ -3460,6 +3461,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
@@ -3471,7 +3477,7 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>13824</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3489,10 +3495,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>66500950</v>
+        <v>66500980</v>
       </c>
       <c r="B26" t="n">
-        <v>90645</v>
+        <v>90647</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3505,21 +3511,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3529,10 +3535,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>418180.8922769416</v>
+        <v>418023.6400665228</v>
       </c>
       <c r="R26" t="n">
-        <v>6965723.1873229</v>
+        <v>6965901.860377851</v>
       </c>
       <c r="S26" t="n">
         <v>50</v>
@@ -3577,11 +3583,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>rikligt</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3593,7 +3594,7 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>13828</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3611,10 +3612,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>66500980</v>
+        <v>66500967</v>
       </c>
       <c r="B27" t="n">
-        <v>90647</v>
+        <v>90645</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3627,21 +3628,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3651,10 +3652,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>418023.6400665228</v>
+        <v>418070.7725573474</v>
       </c>
       <c r="R27" t="n">
-        <v>6965901.860377851</v>
+        <v>6965881.470697334</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3710,7 +3711,7 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>13828</t>
+          <t>13815</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3728,10 +3729,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>66500967</v>
+        <v>66500969</v>
       </c>
       <c r="B28" t="n">
-        <v>90645</v>
+        <v>89545</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3740,25 +3741,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4361</v>
+        <v>1503</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3827,7 +3828,7 @@
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>13815</t>
+          <t>13817</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3845,10 +3846,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>66500969</v>
+        <v>66500985</v>
       </c>
       <c r="B29" t="n">
-        <v>89545</v>
+        <v>90647</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3857,25 +3858,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1503</v>
+        <v>4362</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3885,10 +3886,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>418070.7725573474</v>
+        <v>418055.7917021353</v>
       </c>
       <c r="R29" t="n">
-        <v>6965881.470697334</v>
+        <v>6965868.578597507</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -3944,7 +3945,7 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>13817</t>
+          <t>13833</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3962,10 +3963,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>66500985</v>
+        <v>66505447</v>
       </c>
       <c r="B30" t="n">
-        <v>90647</v>
+        <v>88019</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3974,25 +3975,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4002,10 +4003,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>418055.7917021353</v>
+        <v>418037.6493781783</v>
       </c>
       <c r="R30" t="n">
-        <v>6965868.578597507</v>
+        <v>6965894.191345388</v>
       </c>
       <c r="S30" t="n">
         <v>50</v>
@@ -4061,7 +4062,7 @@
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>13833</t>
+          <t>13820</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4079,10 +4080,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>66505447</v>
+        <v>66500955</v>
       </c>
       <c r="B31" t="n">
-        <v>88019</v>
+        <v>89545</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4095,34 +4096,38 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6276</v>
+        <v>1503</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>418037.6493781783</v>
+        <v>418161.5837728766</v>
       </c>
       <c r="R31" t="n">
-        <v>6965894.191345388</v>
+        <v>6965830.715173931</v>
       </c>
       <c r="S31" t="n">
         <v>50</v>
@@ -4178,7 +4183,7 @@
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>13820</t>
+          <t>13804</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4196,10 +4201,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>66500955</v>
+        <v>66500983</v>
       </c>
       <c r="B32" t="n">
-        <v>89545</v>
+        <v>90841</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4208,42 +4213,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1503</v>
+        <v>2079</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>418161.5837728766</v>
+        <v>418055.7917021353</v>
       </c>
       <c r="R32" t="n">
-        <v>6965830.715173931</v>
+        <v>6965868.578597507</v>
       </c>
       <c r="S32" t="n">
         <v>50</v>
@@ -4299,7 +4300,7 @@
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>13804</t>
+          <t>13831</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4317,10 +4318,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>66500983</v>
+        <v>66500978</v>
       </c>
       <c r="B33" t="n">
-        <v>90841</v>
+        <v>90647</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4333,21 +4334,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2079</v>
+        <v>4362</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4357,10 +4358,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>418055.7917021353</v>
+        <v>418025.9758622434</v>
       </c>
       <c r="R33" t="n">
-        <v>6965868.578597507</v>
+        <v>6965885.333890018</v>
       </c>
       <c r="S33" t="n">
         <v>50</v>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>13831</t>
+          <t>13826</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4434,10 +4435,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66500978</v>
+        <v>66500974</v>
       </c>
       <c r="B34" t="n">
-        <v>90647</v>
+        <v>90669</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4450,21 +4451,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4522,6 +4523,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4533,7 +4539,7 @@
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>13826</t>
+          <t>13822</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4551,10 +4557,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>66500974</v>
+        <v>66500981</v>
       </c>
       <c r="B35" t="n">
-        <v>90669</v>
+        <v>77177</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4567,34 +4573,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2059</v>
+        <v>353</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>418025.9758622434</v>
+        <v>418045.8568606665</v>
       </c>
       <c r="R35" t="n">
-        <v>6965885.333890018</v>
+        <v>6965874.316062052</v>
       </c>
       <c r="S35" t="n">
         <v>50</v>
@@ -4639,11 +4649,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>rikligt</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -4655,7 +4660,7 @@
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>13822</t>
+          <t>13829</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4673,7 +4678,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>66500981</v>
+        <v>66500958</v>
       </c>
       <c r="B36" t="n">
         <v>77177</v>
@@ -4706,21 +4711,17 @@
           <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>418045.8568606665</v>
+        <v>418153.4684979633</v>
       </c>
       <c r="R36" t="n">
-        <v>6965874.316062052</v>
+        <v>6965835.949539423</v>
       </c>
       <c r="S36" t="n">
         <v>50</v>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>13829</t>
+          <t>13807</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4794,7 +4795,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>66500958</v>
+        <v>66500975</v>
       </c>
       <c r="B37" t="n">
         <v>77177</v>
@@ -4827,17 +4828,21 @@
           <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>418153.4684979633</v>
+        <v>418025.9758622434</v>
       </c>
       <c r="R37" t="n">
-        <v>6965835.949539423</v>
+        <v>6965885.333890018</v>
       </c>
       <c r="S37" t="n">
         <v>50</v>
@@ -4893,7 +4898,7 @@
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>13807</t>
+          <t>13823</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -4911,10 +4916,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>66500975</v>
+        <v>66500986</v>
       </c>
       <c r="B38" t="n">
-        <v>77177</v>
+        <v>89545</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4923,42 +4928,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>353</v>
+        <v>1503</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>418025.9758622434</v>
+        <v>418049.337938068</v>
       </c>
       <c r="R38" t="n">
-        <v>6965885.333890018</v>
+        <v>6965848.611783498</v>
       </c>
       <c r="S38" t="n">
         <v>50</v>
@@ -5014,7 +5015,7 @@
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>13823</t>
+          <t>13834</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5032,10 +5033,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>66500986</v>
+        <v>66500973</v>
       </c>
       <c r="B39" t="n">
-        <v>89545</v>
+        <v>90645</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5044,25 +5045,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1503</v>
+        <v>4361</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5072,10 +5073,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>418049.337938068</v>
+        <v>418037.6493781783</v>
       </c>
       <c r="R39" t="n">
-        <v>6965848.611783498</v>
+        <v>6965894.191345388</v>
       </c>
       <c r="S39" t="n">
         <v>50</v>
@@ -5131,7 +5132,7 @@
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>13834</t>
+          <t>13821</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5149,10 +5150,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>66500973</v>
+        <v>66500979</v>
       </c>
       <c r="B40" t="n">
-        <v>90645</v>
+        <v>90639</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5165,21 +5166,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5189,10 +5190,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>418037.6493781783</v>
+        <v>418023.6400665228</v>
       </c>
       <c r="R40" t="n">
-        <v>6965894.191345388</v>
+        <v>6965901.860377851</v>
       </c>
       <c r="S40" t="n">
         <v>50</v>
@@ -5248,7 +5249,7 @@
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>13821</t>
+          <t>13827</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5266,10 +5267,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>66500979</v>
+        <v>66500984</v>
       </c>
       <c r="B41" t="n">
-        <v>90639</v>
+        <v>77177</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5282,34 +5283,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3100</v>
+        <v>353</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>418023.6400665228</v>
+        <v>418055.7917021353</v>
       </c>
       <c r="R41" t="n">
-        <v>6965901.860377851</v>
+        <v>6965868.578597507</v>
       </c>
       <c r="S41" t="n">
         <v>50</v>
@@ -5365,7 +5370,7 @@
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>13827</t>
+          <t>13832</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5383,10 +5388,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>66500984</v>
+        <v>66500988</v>
       </c>
       <c r="B42" t="n">
-        <v>77177</v>
+        <v>90647</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5399,38 +5404,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>353</v>
+        <v>4362</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>418055.7917021353</v>
+        <v>418159.7676256296</v>
       </c>
       <c r="R42" t="n">
-        <v>6965868.578597507</v>
+        <v>6965794.621213022</v>
       </c>
       <c r="S42" t="n">
         <v>50</v>
@@ -5486,7 +5487,7 @@
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>13832</t>
+          <t>13836</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5504,10 +5505,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>66500988</v>
+        <v>66500987</v>
       </c>
       <c r="B43" t="n">
-        <v>90647</v>
+        <v>77177</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5520,34 +5521,38 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4362</v>
+        <v>353</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>418159.7676256296</v>
+        <v>418049.337938068</v>
       </c>
       <c r="R43" t="n">
-        <v>6965794.621213022</v>
+        <v>6965848.611783498</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>
@@ -5603,7 +5608,7 @@
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>13836</t>
+          <t>13835</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5621,10 +5626,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>66500987</v>
+        <v>66500982</v>
       </c>
       <c r="B44" t="n">
-        <v>77177</v>
+        <v>90647</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5637,38 +5642,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>353</v>
+        <v>4362</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>418049.337938068</v>
+        <v>418045.8568606665</v>
       </c>
       <c r="R44" t="n">
-        <v>6965848.611783498</v>
+        <v>6965874.316062052</v>
       </c>
       <c r="S44" t="n">
         <v>50</v>
@@ -5724,7 +5725,7 @@
       </c>
       <c r="AR44" t="inlineStr">
         <is>
-          <t>13835</t>
+          <t>13830</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5742,10 +5743,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>66500982</v>
+        <v>7000805</v>
       </c>
       <c r="B45" t="n">
-        <v>90647</v>
+        <v>89545</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5754,41 +5755,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4362</v>
+        <v>1503</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Över-Grucken E, Hjd</t>
+          <t>Abborrsön, Hjd</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>418045.8568606665</v>
+        <v>418418.9827775868</v>
       </c>
       <c r="R45" t="n">
-        <v>6965874.316062052</v>
+        <v>6965552.110442234</v>
       </c>
       <c r="S45" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5812,7 +5813,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2011-08-19</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5822,7 +5823,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2011-08-19</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5838,24 +5839,23 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
-      </c>
-      <c r="AR45" t="inlineStr">
-        <is>
-          <t>13830</t>
-        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Hugo Ström</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr"/>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 27975-2021.xlsx
+++ b/artfynd/A 27975-2021.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7002191</v>
+        <v>7000805</v>
       </c>
       <c r="B3" t="n">
-        <v>90841</v>
+        <v>89545</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +808,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2079</v>
+        <v>1503</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Torsborg, Hjd</t>
+          <t>Abborrsön, Hjd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>418312.5155289819</v>
+        <v>418418.9827775868</v>
       </c>
       <c r="R3" t="n">
-        <v>6965894.658165519</v>
+        <v>6965552.110442234</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2013-09-25</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2013-09-25</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7002189</v>
+        <v>7002191</v>
       </c>
       <c r="B4" t="n">
-        <v>77177</v>
+        <v>90841</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>2079</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>418326.8809325804</v>
+        <v>418312.5155289819</v>
       </c>
       <c r="R4" t="n">
-        <v>6965882.864499347</v>
+        <v>6965894.658165519</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7002379</v>
+        <v>7002189</v>
       </c>
       <c r="B5" t="n">
-        <v>90653</v>
+        <v>77177</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>353</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>418166.504226973</v>
+        <v>418326.8809325804</v>
       </c>
       <c r="R5" t="n">
-        <v>6966064.801772198</v>
+        <v>6965882.864499347</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7000749</v>
+        <v>7002379</v>
       </c>
       <c r="B6" t="n">
-        <v>89633</v>
+        <v>90653</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1156,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>418000.6127412826</v>
+        <v>418166.504226973</v>
       </c>
       <c r="R6" t="n">
-        <v>6965896.94621201</v>
+        <v>6966064.801772198</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2013-08-05</t>
+          <t>2013-09-25</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2013-08-05</t>
+          <t>2013-09-25</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7002187</v>
+        <v>7000749</v>
       </c>
       <c r="B7" t="n">
-        <v>77177</v>
+        <v>89633</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,25 +1272,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>353</v>
+        <v>65</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>418395.4397498402</v>
+        <v>418000.6127412826</v>
       </c>
       <c r="R7" t="n">
-        <v>6965802.934802333</v>
+        <v>6965896.94621201</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2013-09-25</t>
+          <t>2013-08-05</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2013-09-25</t>
+          <t>2013-08-05</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7002193</v>
+        <v>7002187</v>
       </c>
       <c r="B8" t="n">
-        <v>89633</v>
+        <v>77177</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1388,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>418178.932913432</v>
+        <v>418395.4397498402</v>
       </c>
       <c r="R8" t="n">
-        <v>6965956.995579326</v>
+        <v>6965802.934802333</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66500968</v>
+        <v>7002193</v>
       </c>
       <c r="B9" t="n">
-        <v>77177</v>
+        <v>89633</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,41 +1504,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>65</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Över-Grucken E, Hjd</t>
+          <t>Torsborg, Hjd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>418070.7725573474</v>
+        <v>418178.932913432</v>
       </c>
       <c r="R9" t="n">
-        <v>6965881.470697334</v>
+        <v>6965956.995579326</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2011-08-19</t>
+          <t>2013-09-25</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2011-08-19</t>
+          <t>2013-09-25</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1588,31 +1588,30 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>13816</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Hugo Ström</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66500951</v>
+        <v>66500968</v>
       </c>
       <c r="B10" t="n">
-        <v>90647</v>
+        <v>77177</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1625,21 +1624,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4362</v>
+        <v>353</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1649,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>418180.8922769416</v>
+        <v>418070.7725573474</v>
       </c>
       <c r="R10" t="n">
-        <v>6965723.1873229</v>
+        <v>6965881.470697334</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
@@ -1708,7 +1707,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>13801</t>
+          <t>13816</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1726,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66500963</v>
+        <v>66500951</v>
       </c>
       <c r="B11" t="n">
-        <v>77177</v>
+        <v>90647</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1742,21 +1741,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1766,10 +1765,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>418084.7364231201</v>
+        <v>418180.8922769416</v>
       </c>
       <c r="R11" t="n">
-        <v>6965871.973159548</v>
+        <v>6965723.1873229</v>
       </c>
       <c r="S11" t="n">
         <v>50</v>
@@ -1825,7 +1824,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>13811</t>
+          <t>13801</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1843,10 +1842,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>66500957</v>
+        <v>66500963</v>
       </c>
       <c r="B12" t="n">
-        <v>90841</v>
+        <v>77177</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1859,21 +1858,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2079</v>
+        <v>353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1883,10 +1882,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>418153.4684979633</v>
+        <v>418084.7364231201</v>
       </c>
       <c r="R12" t="n">
-        <v>6965835.949539423</v>
+        <v>6965871.973159548</v>
       </c>
       <c r="S12" t="n">
         <v>50</v>
@@ -1942,7 +1941,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>13806</t>
+          <t>13811</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1960,10 +1959,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66500966</v>
+        <v>66500957</v>
       </c>
       <c r="B13" t="n">
-        <v>90697</v>
+        <v>90841</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1976,21 +1975,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5449</v>
+        <v>2079</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2000,10 +1999,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>418070.7725573474</v>
+        <v>418153.4684979633</v>
       </c>
       <c r="R13" t="n">
-        <v>6965881.470697334</v>
+        <v>6965835.949539423</v>
       </c>
       <c r="S13" t="n">
         <v>50</v>
@@ -2048,11 +2047,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>rikligt</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2064,7 +2058,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>13814</t>
+          <t>13806</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2082,10 +2076,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>66500977</v>
+        <v>66500966</v>
       </c>
       <c r="B14" t="n">
-        <v>89545</v>
+        <v>90697</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2094,25 +2088,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1503</v>
+        <v>5449</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2122,10 +2116,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>418025.9758622434</v>
+        <v>418070.7725573474</v>
       </c>
       <c r="R14" t="n">
-        <v>6965885.333890018</v>
+        <v>6965881.470697334</v>
       </c>
       <c r="S14" t="n">
         <v>50</v>
@@ -2170,6 +2164,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2181,7 +2180,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>13825</t>
+          <t>13814</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2199,10 +2198,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66500971</v>
+        <v>66500977</v>
       </c>
       <c r="B15" t="n">
-        <v>90647</v>
+        <v>89545</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2211,25 +2210,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4362</v>
+        <v>1503</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2239,10 +2238,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>418037.6493781783</v>
+        <v>418025.9758622434</v>
       </c>
       <c r="R15" t="n">
-        <v>6965894.191345388</v>
+        <v>6965885.333890018</v>
       </c>
       <c r="S15" t="n">
         <v>50</v>
@@ -2298,7 +2297,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>13819</t>
+          <t>13825</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2316,10 +2315,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66500964</v>
+        <v>66500971</v>
       </c>
       <c r="B16" t="n">
-        <v>76909</v>
+        <v>90647</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2332,21 +2331,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6437</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2356,10 +2355,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>418084.7364231201</v>
+        <v>418037.6493781783</v>
       </c>
       <c r="R16" t="n">
-        <v>6965871.973159548</v>
+        <v>6965894.191345388</v>
       </c>
       <c r="S16" t="n">
         <v>50</v>
@@ -2415,7 +2414,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>13812</t>
+          <t>13819</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2433,10 +2432,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>66500959</v>
+        <v>66500964</v>
       </c>
       <c r="B17" t="n">
-        <v>90697</v>
+        <v>76909</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2449,21 +2448,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5449</v>
+        <v>6437</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2473,10 +2472,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>418125.9637548741</v>
+        <v>418084.7364231201</v>
       </c>
       <c r="R17" t="n">
-        <v>6965853.561324411</v>
+        <v>6965871.973159548</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2532,7 +2531,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>13808</t>
+          <t>13812</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2550,10 +2549,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>66500954</v>
+        <v>66500959</v>
       </c>
       <c r="B18" t="n">
-        <v>90647</v>
+        <v>90697</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2566,21 +2565,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>5449</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2590,10 +2589,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>418161.5837728766</v>
+        <v>418125.9637548741</v>
       </c>
       <c r="R18" t="n">
-        <v>6965830.715173931</v>
+        <v>6965853.561324411</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2649,7 +2648,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>13803</t>
+          <t>13808</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2667,10 +2666,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>66500956</v>
+        <v>66500954</v>
       </c>
       <c r="B19" t="n">
-        <v>90657</v>
+        <v>90647</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2679,25 +2678,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4365</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2707,10 +2706,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>418153.4684979633</v>
+        <v>418161.5837728766</v>
       </c>
       <c r="R19" t="n">
-        <v>6965835.949539423</v>
+        <v>6965830.715173931</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2766,7 +2765,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>13805</t>
+          <t>13803</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2784,10 +2783,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>66500970</v>
+        <v>66500956</v>
       </c>
       <c r="B20" t="n">
-        <v>90669</v>
+        <v>90657</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2796,25 +2795,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2059</v>
+        <v>4365</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2824,10 +2823,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>418037.6493781783</v>
+        <v>418153.4684979633</v>
       </c>
       <c r="R20" t="n">
-        <v>6965894.191345388</v>
+        <v>6965835.949539423</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2883,7 +2882,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>13818</t>
+          <t>13805</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2901,10 +2900,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>66500962</v>
+        <v>66500970</v>
       </c>
       <c r="B21" t="n">
-        <v>77177</v>
+        <v>90669</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2917,21 +2916,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>353</v>
+        <v>2059</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2941,10 +2940,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>418109.9745508432</v>
+        <v>418037.6493781783</v>
       </c>
       <c r="R21" t="n">
-        <v>6965855.332562842</v>
+        <v>6965894.191345388</v>
       </c>
       <c r="S21" t="n">
         <v>50</v>
@@ -3000,7 +2999,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>13810</t>
+          <t>13818</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3018,10 +3017,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>66500961</v>
+        <v>66500962</v>
       </c>
       <c r="B22" t="n">
-        <v>90639</v>
+        <v>77177</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3034,21 +3033,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3100</v>
+        <v>353</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3117,7 +3116,7 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>13809</t>
+          <t>13810</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3135,10 +3134,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>66500952</v>
+        <v>66500961</v>
       </c>
       <c r="B23" t="n">
-        <v>77177</v>
+        <v>90639</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3151,38 +3150,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>353</v>
+        <v>3100</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>418161.5837728766</v>
+        <v>418109.9745508432</v>
       </c>
       <c r="R23" t="n">
-        <v>6965830.715173931</v>
+        <v>6965855.332562842</v>
       </c>
       <c r="S23" t="n">
         <v>50</v>
@@ -3238,7 +3233,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>13802</t>
+          <t>13809</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3256,10 +3251,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>66500976</v>
+        <v>66500952</v>
       </c>
       <c r="B24" t="n">
-        <v>90645</v>
+        <v>77177</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3272,34 +3267,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4361</v>
+        <v>353</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>418025.9758622434</v>
+        <v>418161.5837728766</v>
       </c>
       <c r="R24" t="n">
-        <v>6965885.333890018</v>
+        <v>6965830.715173931</v>
       </c>
       <c r="S24" t="n">
         <v>50</v>
@@ -3355,7 +3354,7 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>13824</t>
+          <t>13802</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3373,7 +3372,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>66500950</v>
+        <v>66500976</v>
       </c>
       <c r="B25" t="n">
         <v>90645</v>
@@ -3413,10 +3412,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>418180.8922769416</v>
+        <v>418025.9758622434</v>
       </c>
       <c r="R25" t="n">
-        <v>6965723.1873229</v>
+        <v>6965885.333890018</v>
       </c>
       <c r="S25" t="n">
         <v>50</v>
@@ -3461,11 +3460,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>rikligt</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
@@ -3477,7 +3471,7 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>13824</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3495,10 +3489,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>66500980</v>
+        <v>66500950</v>
       </c>
       <c r="B26" t="n">
-        <v>90647</v>
+        <v>90645</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3511,21 +3505,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3535,10 +3529,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>418023.6400665228</v>
+        <v>418180.8922769416</v>
       </c>
       <c r="R26" t="n">
-        <v>6965901.860377851</v>
+        <v>6965723.1873229</v>
       </c>
       <c r="S26" t="n">
         <v>50</v>
@@ -3583,6 +3577,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3594,7 +3593,7 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>13828</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3612,10 +3611,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>66500967</v>
+        <v>66500980</v>
       </c>
       <c r="B27" t="n">
-        <v>90645</v>
+        <v>90647</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3628,21 +3627,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3652,10 +3651,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>418070.7725573474</v>
+        <v>418023.6400665228</v>
       </c>
       <c r="R27" t="n">
-        <v>6965881.470697334</v>
+        <v>6965901.860377851</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3711,7 +3710,7 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>13815</t>
+          <t>13828</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3729,10 +3728,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>66500969</v>
+        <v>66500967</v>
       </c>
       <c r="B28" t="n">
-        <v>89545</v>
+        <v>90645</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3741,25 +3740,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1503</v>
+        <v>4361</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3828,7 +3827,7 @@
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>13817</t>
+          <t>13815</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3846,10 +3845,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>66500985</v>
+        <v>66500969</v>
       </c>
       <c r="B29" t="n">
-        <v>90647</v>
+        <v>89545</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3858,25 +3857,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4362</v>
+        <v>1503</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3886,10 +3885,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>418055.7917021353</v>
+        <v>418070.7725573474</v>
       </c>
       <c r="R29" t="n">
-        <v>6965868.578597507</v>
+        <v>6965881.470697334</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -3945,7 +3944,7 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>13833</t>
+          <t>13817</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3963,10 +3962,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>66505447</v>
+        <v>66500985</v>
       </c>
       <c r="B30" t="n">
-        <v>88019</v>
+        <v>90647</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3975,25 +3974,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4003,10 +4002,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>418037.6493781783</v>
+        <v>418055.7917021353</v>
       </c>
       <c r="R30" t="n">
-        <v>6965894.191345388</v>
+        <v>6965868.578597507</v>
       </c>
       <c r="S30" t="n">
         <v>50</v>
@@ -4062,7 +4061,7 @@
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>13820</t>
+          <t>13833</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4080,10 +4079,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>66500955</v>
+        <v>66505447</v>
       </c>
       <c r="B31" t="n">
-        <v>89545</v>
+        <v>88019</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4096,38 +4095,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1503</v>
+        <v>6276</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>418161.5837728766</v>
+        <v>418037.6493781783</v>
       </c>
       <c r="R31" t="n">
-        <v>6965830.715173931</v>
+        <v>6965894.191345388</v>
       </c>
       <c r="S31" t="n">
         <v>50</v>
@@ -4183,7 +4178,7 @@
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>13804</t>
+          <t>13820</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4201,10 +4196,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>66500983</v>
+        <v>66500955</v>
       </c>
       <c r="B32" t="n">
-        <v>90841</v>
+        <v>89545</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4213,38 +4208,42 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2079</v>
+        <v>1503</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>418055.7917021353</v>
+        <v>418161.5837728766</v>
       </c>
       <c r="R32" t="n">
-        <v>6965868.578597507</v>
+        <v>6965830.715173931</v>
       </c>
       <c r="S32" t="n">
         <v>50</v>
@@ -4300,7 +4299,7 @@
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>13831</t>
+          <t>13804</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4318,10 +4317,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>66500978</v>
+        <v>66500983</v>
       </c>
       <c r="B33" t="n">
-        <v>90647</v>
+        <v>90841</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4334,21 +4333,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4362</v>
+        <v>2079</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4358,10 +4357,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>418025.9758622434</v>
+        <v>418055.7917021353</v>
       </c>
       <c r="R33" t="n">
-        <v>6965885.333890018</v>
+        <v>6965868.578597507</v>
       </c>
       <c r="S33" t="n">
         <v>50</v>
@@ -4417,7 +4416,7 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>13826</t>
+          <t>13831</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4435,10 +4434,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66500974</v>
+        <v>66500978</v>
       </c>
       <c r="B34" t="n">
-        <v>90669</v>
+        <v>90647</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4451,21 +4450,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4523,11 +4522,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>rikligt</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4539,7 +4533,7 @@
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>13822</t>
+          <t>13826</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4557,10 +4551,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>66500981</v>
+        <v>66500974</v>
       </c>
       <c r="B35" t="n">
-        <v>77177</v>
+        <v>90669</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4573,38 +4567,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>353</v>
+        <v>2059</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>418045.8568606665</v>
+        <v>418025.9758622434</v>
       </c>
       <c r="R35" t="n">
-        <v>6965874.316062052</v>
+        <v>6965885.333890018</v>
       </c>
       <c r="S35" t="n">
         <v>50</v>
@@ -4649,6 +4639,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -4660,7 +4655,7 @@
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>13829</t>
+          <t>13822</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4678,7 +4673,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>66500958</v>
+        <v>66500981</v>
       </c>
       <c r="B36" t="n">
         <v>77177</v>
@@ -4711,17 +4706,21 @@
           <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>418153.4684979633</v>
+        <v>418045.8568606665</v>
       </c>
       <c r="R36" t="n">
-        <v>6965835.949539423</v>
+        <v>6965874.316062052</v>
       </c>
       <c r="S36" t="n">
         <v>50</v>
@@ -4777,7 +4776,7 @@
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>13807</t>
+          <t>13829</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4795,7 +4794,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>66500975</v>
+        <v>66500958</v>
       </c>
       <c r="B37" t="n">
         <v>77177</v>
@@ -4828,21 +4827,17 @@
           <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>418025.9758622434</v>
+        <v>418153.4684979633</v>
       </c>
       <c r="R37" t="n">
-        <v>6965885.333890018</v>
+        <v>6965835.949539423</v>
       </c>
       <c r="S37" t="n">
         <v>50</v>
@@ -4898,7 +4893,7 @@
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>13823</t>
+          <t>13807</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -4916,10 +4911,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>66500986</v>
+        <v>66500975</v>
       </c>
       <c r="B38" t="n">
-        <v>89545</v>
+        <v>77177</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4928,38 +4923,42 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1503</v>
+        <v>353</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>418049.337938068</v>
+        <v>418025.9758622434</v>
       </c>
       <c r="R38" t="n">
-        <v>6965848.611783498</v>
+        <v>6965885.333890018</v>
       </c>
       <c r="S38" t="n">
         <v>50</v>
@@ -5015,7 +5014,7 @@
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>13834</t>
+          <t>13823</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5033,10 +5032,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>66500973</v>
+        <v>66500986</v>
       </c>
       <c r="B39" t="n">
-        <v>90645</v>
+        <v>89545</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5045,25 +5044,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4361</v>
+        <v>1503</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5073,10 +5072,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>418037.6493781783</v>
+        <v>418049.337938068</v>
       </c>
       <c r="R39" t="n">
-        <v>6965894.191345388</v>
+        <v>6965848.611783498</v>
       </c>
       <c r="S39" t="n">
         <v>50</v>
@@ -5132,7 +5131,7 @@
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>13821</t>
+          <t>13834</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5150,10 +5149,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>66500979</v>
+        <v>66500973</v>
       </c>
       <c r="B40" t="n">
-        <v>90639</v>
+        <v>90645</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5166,21 +5165,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5190,10 +5189,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>418023.6400665228</v>
+        <v>418037.6493781783</v>
       </c>
       <c r="R40" t="n">
-        <v>6965901.860377851</v>
+        <v>6965894.191345388</v>
       </c>
       <c r="S40" t="n">
         <v>50</v>
@@ -5249,7 +5248,7 @@
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>13827</t>
+          <t>13821</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5267,10 +5266,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>66500984</v>
+        <v>66500979</v>
       </c>
       <c r="B41" t="n">
-        <v>77177</v>
+        <v>90639</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5283,38 +5282,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>353</v>
+        <v>3100</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>418055.7917021353</v>
+        <v>418023.6400665228</v>
       </c>
       <c r="R41" t="n">
-        <v>6965868.578597507</v>
+        <v>6965901.860377851</v>
       </c>
       <c r="S41" t="n">
         <v>50</v>
@@ -5370,7 +5365,7 @@
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>13832</t>
+          <t>13827</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5388,10 +5383,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>66500988</v>
+        <v>66500984</v>
       </c>
       <c r="B42" t="n">
-        <v>90647</v>
+        <v>77177</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5404,34 +5399,38 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4362</v>
+        <v>353</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>418159.7676256296</v>
+        <v>418055.7917021353</v>
       </c>
       <c r="R42" t="n">
-        <v>6965794.621213022</v>
+        <v>6965868.578597507</v>
       </c>
       <c r="S42" t="n">
         <v>50</v>
@@ -5487,7 +5486,7 @@
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>13836</t>
+          <t>13832</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5505,10 +5504,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>66500987</v>
+        <v>66500988</v>
       </c>
       <c r="B43" t="n">
-        <v>77177</v>
+        <v>90647</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5521,38 +5520,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>353</v>
+        <v>4362</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>418049.337938068</v>
+        <v>418159.7676256296</v>
       </c>
       <c r="R43" t="n">
-        <v>6965848.611783498</v>
+        <v>6965794.621213022</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>
@@ -5608,7 +5603,7 @@
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>13835</t>
+          <t>13836</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5626,10 +5621,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>66500982</v>
+        <v>66500987</v>
       </c>
       <c r="B44" t="n">
-        <v>90647</v>
+        <v>77177</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5642,34 +5637,38 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4362</v>
+        <v>353</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>418045.8568606665</v>
+        <v>418049.337938068</v>
       </c>
       <c r="R44" t="n">
-        <v>6965874.316062052</v>
+        <v>6965848.611783498</v>
       </c>
       <c r="S44" t="n">
         <v>50</v>
@@ -5725,7 +5724,7 @@
       </c>
       <c r="AR44" t="inlineStr">
         <is>
-          <t>13830</t>
+          <t>13835</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5743,10 +5742,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7000805</v>
+        <v>66500982</v>
       </c>
       <c r="B45" t="n">
-        <v>89545</v>
+        <v>90647</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5755,41 +5754,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1503</v>
+        <v>4362</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Abborrsön, Hjd</t>
+          <t>Över-Grucken E, Hjd</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>418418.9827775868</v>
+        <v>418045.8568606665</v>
       </c>
       <c r="R45" t="n">
-        <v>6965552.110442234</v>
+        <v>6965874.316062052</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5813,7 +5812,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2011-08-19</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5823,7 +5822,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2011-08-19</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5839,23 +5838,24 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>13830</t>
+        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Via Malin Sahlin</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
